--- a/data/trans_bre/P74B-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P74B-Provincia-trans_bre.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>68,97; 92,27</t>
+          <t>68,84; 90,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,46; 45,52</t>
+          <t>14,75; 44,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>479,71; 2281,25</t>
+          <t>501,78; 2268,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>63,63; 373,74</t>
+          <t>59,15; 369,54</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>64,74; 81,76</t>
+          <t>63,22; 81,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>50,8; 67,94</t>
+          <t>51,35; 69,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>49,07; 67,17</t>
+          <t>49,44; 66,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>801,15; 2928,52</t>
+          <t>801,97; 2985,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>417,45; 1286,9</t>
+          <t>398,73; 1414,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>558,69; 1723,12</t>
+          <t>520,8; 1707,82</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>69,33; 89,59</t>
+          <t>70,22; 89,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>47,12; 71,98</t>
+          <t>46,7; 72,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>38,62; 63,0</t>
+          <t>37,95; 62,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>927,88; 6227,99</t>
+          <t>987,49; 6640,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>341,46; 1260,53</t>
+          <t>335,13; 1281,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>218,1; 718,11</t>
+          <t>219,5; 811,86</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>59,2; 79,58</t>
+          <t>58,67; 78,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,56; 60,48</t>
+          <t>41,85; 60,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>43,44; 63,61</t>
+          <t>42,75; 62,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>308,92; 854,92</t>
+          <t>314,28; 832,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>141,49; 327,73</t>
+          <t>144,36; 335,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>197,75; 536,6</t>
+          <t>197,35; 510,06</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>56,78; 84,65</t>
+          <t>56,14; 84,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>34,95; 63,93</t>
+          <t>35,32; 64,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23,51; 51,05</t>
+          <t>21,17; 51,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>290,88; 1362,71</t>
+          <t>283,15; 1418,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>141,82; 726,56</t>
+          <t>142,12; 665,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>77,36; 305,23</t>
+          <t>68,96; 304,72</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>69,3; 88,57</t>
+          <t>69,6; 89,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>35,27; 59,24</t>
+          <t>35,81; 59,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>52,8; 78,43</t>
+          <t>53,46; 77,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1185,27; 11193,63</t>
+          <t>1052,35; 11365,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>254,64; 1084,48</t>
+          <t>246,86; 1173,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>559,44; 5999,01</t>
+          <t>550,11; 6366,7</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>64,05; 80,44</t>
+          <t>63,25; 80,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>44,68; 61,11</t>
+          <t>44,95; 62,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>48,34; 67,42</t>
+          <t>48,77; 67,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>539,09; 1343,29</t>
+          <t>555,45; 1427,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>263,67; 628,95</t>
+          <t>245,71; 634,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>353,74; 1096,85</t>
+          <t>357,69; 1084,73</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>66,86; 81,47</t>
+          <t>66,39; 81,44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>50,73; 65,92</t>
+          <t>51,96; 65,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>48,08; 64,23</t>
+          <t>48,17; 63,89</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>565,2; 1306,7</t>
+          <t>593,42; 1404,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>424,93; 1035,73</t>
+          <t>421,25; 981,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>263,06; 552,25</t>
+          <t>256,48; 548,98</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>71,72; 78,43</t>
+          <t>71,97; 78,52</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>51,66; 59,05</t>
+          <t>51,66; 59,28</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>50,14; 57,53</t>
+          <t>49,67; 57,42</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>802,34; 1210,52</t>
+          <t>802,67; 1213,96</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>357,72; 529,41</t>
+          <t>362,89; 547,35</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>352,6; 512,46</t>
+          <t>352,21; 517,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P74B-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P74B-Provincia-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>68,84; 90,87</t>
+          <t>71,58; 91,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,75; 44,9</t>
+          <t>15,05; 43,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>501,78; 2268,23</t>
+          <t>507,22; 2325,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,15; 369,54</t>
+          <t>64,16; 361,16</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>63,22; 81,5</t>
+          <t>64,4; 81,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,35; 69,41</t>
+          <t>50,94; 69,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>49,44; 66,35</t>
+          <t>48,01; 65,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>801,97; 2985,05</t>
+          <t>796,37; 2977,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>398,73; 1414,02</t>
+          <t>393,22; 1343,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>520,8; 1707,82</t>
+          <t>520,2; 1755,29</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>70,22; 89,51</t>
+          <t>68,39; 89,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>46,7; 72,62</t>
+          <t>46,6; 71,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>37,95; 62,93</t>
+          <t>37,25; 61,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>987,49; 6640,15</t>
+          <t>1027,93; 6422,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>335,13; 1281,06</t>
+          <t>339,41; 1267,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>219,5; 811,86</t>
+          <t>211,49; 758,73</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>58,67; 78,7</t>
+          <t>59,57; 79,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,85; 60,98</t>
+          <t>41,67; 60,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>42,75; 62,95</t>
+          <t>42,24; 62,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>314,28; 832,34</t>
+          <t>327,26; 877,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>144,36; 335,72</t>
+          <t>146,08; 326,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>197,35; 510,06</t>
+          <t>168,46; 478,01</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>56,14; 84,15</t>
+          <t>54,08; 83,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>35,32; 64,58</t>
+          <t>33,89; 64,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21,17; 51,53</t>
+          <t>22,48; 50,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>283,15; 1418,21</t>
+          <t>266,92; 1367,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>142,12; 665,09</t>
+          <t>127,62; 760,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>68,96; 304,72</t>
+          <t>67,95; 291,41</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>69,6; 89,35</t>
+          <t>69,78; 88,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>35,81; 59,23</t>
+          <t>36,82; 60,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>53,46; 77,47</t>
+          <t>54,07; 78,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1052,35; 11365,43</t>
+          <t>1030,1; 10921,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>246,86; 1173,63</t>
+          <t>246,15; 1168,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>550,11; 6366,7</t>
+          <t>567,77; 6576,56</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>63,25; 80,01</t>
+          <t>63,87; 79,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>44,95; 62,18</t>
+          <t>44,57; 61,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>48,77; 67,11</t>
+          <t>48,79; 67,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>555,45; 1427,71</t>
+          <t>555,95; 1417,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>245,71; 634,07</t>
+          <t>251,56; 643,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>357,69; 1084,73</t>
+          <t>346,23; 1143,79</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>66,39; 81,44</t>
+          <t>66,68; 80,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>51,96; 65,92</t>
+          <t>50,93; 66,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>48,17; 63,89</t>
+          <t>47,4; 64,48</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>593,42; 1404,26</t>
+          <t>566,26; 1330,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>421,25; 981,37</t>
+          <t>410,42; 964,21</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>256,48; 548,98</t>
+          <t>246,82; 542,46</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>71,97; 78,52</t>
+          <t>72,08; 78,6</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>51,66; 59,28</t>
+          <t>51,9; 59,64</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>49,67; 57,42</t>
+          <t>50,12; 57,26</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>802,67; 1213,96</t>
+          <t>824,22; 1234,24</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>362,89; 547,35</t>
+          <t>363,99; 547,79</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>352,21; 517,05</t>
+          <t>359,19; 527,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P74B-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P74B-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>71,58; 91,55</t>
+          <t>68,97; 92,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,05; 43,71</t>
+          <t>16,46; 45,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>507,22; 2325,77</t>
+          <t>479,71; 2281,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>64,16; 361,16</t>
+          <t>63,63; 373,74</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>64,4; 81,44</t>
+          <t>64,74; 81,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>50,94; 69,32</t>
+          <t>50,8; 67,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>48,01; 65,69</t>
+          <t>49,07; 67,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>796,37; 2977,52</t>
+          <t>801,15; 2928,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>393,22; 1343,07</t>
+          <t>417,45; 1286,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>520,2; 1755,29</t>
+          <t>558,69; 1723,12</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>68,39; 89,26</t>
+          <t>69,33; 89,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>46,6; 71,51</t>
+          <t>47,12; 71,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>37,25; 61,92</t>
+          <t>38,62; 63,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1027,93; 6422,88</t>
+          <t>927,88; 6227,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>339,41; 1267,79</t>
+          <t>341,46; 1260,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>211,49; 758,73</t>
+          <t>218,1; 718,11</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>59,57; 79,01</t>
+          <t>59,2; 79,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,67; 60,42</t>
+          <t>41,56; 60,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>42,24; 62,78</t>
+          <t>43,44; 63,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>327,26; 877,71</t>
+          <t>308,92; 854,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>146,08; 326,34</t>
+          <t>141,49; 327,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>168,46; 478,01</t>
+          <t>197,75; 536,6</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>54,08; 83,39</t>
+          <t>56,78; 84,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>33,89; 64,64</t>
+          <t>34,95; 63,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,48; 50,53</t>
+          <t>23,51; 51,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>266,92; 1367,82</t>
+          <t>290,88; 1362,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>127,62; 760,51</t>
+          <t>141,82; 726,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>67,95; 291,41</t>
+          <t>77,36; 305,23</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>69,78; 88,9</t>
+          <t>69,3; 88,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>36,82; 60,26</t>
+          <t>35,27; 59,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>54,07; 78,09</t>
+          <t>52,8; 78,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1030,1; 10921,42</t>
+          <t>1185,27; 11193,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>246,15; 1168,71</t>
+          <t>254,64; 1084,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>567,77; 6576,56</t>
+          <t>559,44; 5999,01</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>63,87; 79,92</t>
+          <t>64,05; 80,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>44,57; 61,83</t>
+          <t>44,68; 61,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>48,79; 67,78</t>
+          <t>48,34; 67,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>555,95; 1417,84</t>
+          <t>539,09; 1343,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>251,56; 643,2</t>
+          <t>263,67; 628,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>346,23; 1143,79</t>
+          <t>353,74; 1096,85</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>66,68; 80,64</t>
+          <t>66,86; 81,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>50,93; 66,61</t>
+          <t>50,73; 65,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>47,4; 64,48</t>
+          <t>48,08; 64,23</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>566,26; 1330,53</t>
+          <t>565,2; 1306,7</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>410,42; 964,21</t>
+          <t>424,93; 1035,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>246,82; 542,46</t>
+          <t>263,06; 552,25</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>72,08; 78,6</t>
+          <t>71,72; 78,43</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>51,9; 59,64</t>
+          <t>51,66; 59,05</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>50,12; 57,26</t>
+          <t>50,14; 57,53</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>824,22; 1234,24</t>
+          <t>802,34; 1210,52</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>363,99; 547,79</t>
+          <t>357,72; 529,41</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>359,19; 527,81</t>
+          <t>352,6; 512,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P74B-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P74B-Provincia-trans_bre.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>41,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>148,41%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,18; 54,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>60,4; 273,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>51,37</t>
+          <t>58,2</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>218,72%</t>
+          <t>285,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,56; 60,48</t>
+          <t>47,33; 68,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>141,49; 327,73</t>
+          <t>180,92; 493,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_bre/P74B-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P74B-Provincia-trans_bre.xlsx
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>68,97; 92,27</t>
+          <t>71,8; 91,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,18; 54,88</t>
+          <t>23,12; 56,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,46; 45,52</t>
+          <t>14,46; 44,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>479,71; 2281,25</t>
+          <t>462,08; 2125,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>60,4; 273,52</t>
+          <t>66,09; 281,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>63,63; 373,74</t>
+          <t>67,17; 388,76</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>64,74; 81,76</t>
+          <t>63,03; 80,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>50,8; 67,94</t>
+          <t>51,44; 68,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>49,07; 67,17</t>
+          <t>49,52; 65,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>801,15; 2928,52</t>
+          <t>770,69; 2844,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>417,45; 1286,9</t>
+          <t>399,66; 1338,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>558,69; 1723,12</t>
+          <t>553,82; 1674,25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>69,33; 89,59</t>
+          <t>70,22; 89,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>47,12; 71,98</t>
+          <t>47,19; 72,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>38,62; 63,0</t>
+          <t>37,61; 62,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>927,88; 6227,99</t>
+          <t>1070,14; 6953,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>341,46; 1260,53</t>
+          <t>341,79; 1264,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>218,1; 718,11</t>
+          <t>209,03; 723,74</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>59,2; 79,58</t>
+          <t>59,82; 79,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>47,33; 68,85</t>
+          <t>45,77; 68,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>43,44; 63,61</t>
+          <t>41,65; 63,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>308,92; 854,92</t>
+          <t>313,98; 860,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>180,92; 493,94</t>
+          <t>163,06; 461,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>197,75; 536,6</t>
+          <t>187,57; 520,11</t>
         </is>
       </c>
     </row>
@@ -962,39 +962,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>56,78; 84,65</t>
+          <t>56,62; 84,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>34,95; 63,93</t>
+          <t>35,38; 64,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23,51; 51,05</t>
+          <t>23,52; 50,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>290,88; 1362,71</t>
+          <t>280,46; 1408,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>141,82; 726,56</t>
+          <t>141,24; 656,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>77,36; 305,23</t>
+          <t>72,37; 299,65</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>69,3; 88,57</t>
+          <t>69,34; 88,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>35,27; 59,24</t>
+          <t>37,24; 60,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>52,8; 78,43</t>
+          <t>53,83; 77,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1185,27; 11193,63</t>
+          <t>973,69; 6446,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>254,64; 1084,48</t>
+          <t>261,43; 1112,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>559,44; 5999,01</t>
+          <t>560,48; 6260,95</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>64,05; 80,44</t>
+          <t>62,72; 79,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>44,68; 61,11</t>
+          <t>44,53; 62,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>48,34; 67,42</t>
+          <t>46,66; 66,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>539,09; 1343,29</t>
+          <t>543,48; 1381,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>263,67; 628,95</t>
+          <t>261,34; 678,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>353,74; 1096,85</t>
+          <t>343,54; 985,48</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>66,86; 81,47</t>
+          <t>65,65; 81,62</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>50,73; 65,92</t>
+          <t>50,99; 65,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>48,08; 64,23</t>
+          <t>47,97; 64,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>565,2; 1306,7</t>
+          <t>568,2; 1367,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>424,93; 1035,73</t>
+          <t>418,01; 1005,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>263,06; 552,25</t>
+          <t>260,99; 547,63</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>71,72; 78,43</t>
+          <t>71,91; 78,22</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>51,66; 59,05</t>
+          <t>51,29; 58,99</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>50,14; 57,53</t>
+          <t>49,88; 57,51</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>802,34; 1210,52</t>
+          <t>810,39; 1228,21</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>357,72; 529,41</t>
+          <t>366,32; 545,53</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>352,6; 512,46</t>
+          <t>363,85; 527,04</t>
         </is>
       </c>
     </row>
